--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed3/result_data_KNN.xlsx
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.559999999999999</v>
+        <v>-8.429</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.404</v>
+        <v>-8.231999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.12</v>
+        <v>-7.290000000000001</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.098000000000001</v>
+        <v>-8.318999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.613999999999999</v>
+        <v>-8.228999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.372</v>
+        <v>-8.175000000000001</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.318999999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.068000000000001</v>
+        <v>-7.111</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-8.391999999999999</v>
+        <v>-8.198</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.436</v>
+        <v>-8.406000000000001</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.484</v>
+        <v>-7.85</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1797,7 +1797,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.112</v>
+        <v>-7.923</v>
       </c>
       <c r="E80" t="n">
         <v>16.41</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.698</v>
+        <v>-7.274000000000001</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.548</v>
+        <v>-8.399000000000001</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.315000000000001</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.93</v>
+        <v>-7.767</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.372</v>
+        <v>-8.081999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
